--- a/data/trans_orig/P24B-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P24B-Dificultad-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>51409</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>39306</v>
+        <v>39746</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>65925</v>
+        <v>64511</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1956706316953037</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.149604290010066</v>
+        <v>0.1512807685702737</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2509190483325688</v>
+        <v>0.2455372601658152</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>44</v>
@@ -764,19 +764,19 @@
         <v>48000</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>36487</v>
+        <v>35766</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>61835</v>
+        <v>62068</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2159679567543102</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1641672725258175</v>
+        <v>0.1609242717667699</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2782137200930441</v>
+        <v>0.2792650720940033</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>94</v>
@@ -785,19 +785,19 @@
         <v>99409</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>83325</v>
+        <v>82996</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>119927</v>
+        <v>118644</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2049722794428305</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1718072782996817</v>
+        <v>0.1711287661717332</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2472771109268872</v>
+        <v>0.2446332346550222</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>177337</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>161841</v>
+        <v>162239</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>193455</v>
+        <v>192453</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6749710778748537</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6159884950393835</v>
+        <v>0.6175067686145606</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7363195986500349</v>
+        <v>0.7325023673182591</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>110</v>
@@ -835,19 +835,19 @@
         <v>114916</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>100365</v>
+        <v>100825</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>129510</v>
+        <v>129523</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5170432215083643</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4515728626590275</v>
+        <v>0.4536436527423962</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5827061604927229</v>
+        <v>0.5827636296250494</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>283</v>
@@ -856,19 +856,19 @@
         <v>292253</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>271268</v>
+        <v>270538</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>312749</v>
+        <v>312512</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6025975367716501</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5593284744471185</v>
+        <v>0.5578235263388163</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6448569993844896</v>
+        <v>0.6443691018076252</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>33987</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>23907</v>
+        <v>23959</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>47226</v>
+        <v>46861</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1293582904298426</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.0909934339884703</v>
+        <v>0.09119226506060349</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1797476041187922</v>
+        <v>0.1783590183699585</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>59</v>
@@ -906,19 +906,19 @@
         <v>59340</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>46602</v>
+        <v>45447</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>72175</v>
+        <v>72967</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2669888217373255</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2096766701444813</v>
+        <v>0.2044788201496831</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3247379614532336</v>
+        <v>0.3283011058792636</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>92</v>
@@ -927,19 +927,19 @@
         <v>93327</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>77173</v>
+        <v>77079</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>111455</v>
+        <v>110494</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1924301837855194</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1591236640929413</v>
+        <v>0.1589287802786612</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2298100820466912</v>
+        <v>0.2278275524437267</v>
       </c>
     </row>
     <row r="7">
@@ -1031,19 +1031,19 @@
         <v>68435</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>52974</v>
+        <v>54557</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>85658</v>
+        <v>85836</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1386898002082799</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1073577268841047</v>
+        <v>0.1105660116457858</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1735957354408358</v>
+        <v>0.1739559803222512</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>40</v>
@@ -1052,19 +1052,19 @@
         <v>42547</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>30607</v>
+        <v>31402</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>54975</v>
+        <v>55262</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1530701666535945</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1101147146594976</v>
+        <v>0.1129758229388894</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1977835368368219</v>
+        <v>0.1988154840986711</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>107</v>
@@ -1073,19 +1073,19 @@
         <v>110981</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>92159</v>
+        <v>90275</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>134643</v>
+        <v>128999</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1438714705112537</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1194708791870653</v>
+        <v>0.1170285279865663</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1745454049901113</v>
+        <v>0.1672287948462951</v>
       </c>
     </row>
     <row r="9">
@@ -1102,19 +1102,19 @@
         <v>358050</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>335471</v>
+        <v>336887</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>377174</v>
+        <v>377999</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.7256254878032722</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.6798675691014705</v>
+        <v>0.6827359680966769</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.7643825601304701</v>
+        <v>0.7660549128119776</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>176</v>
@@ -1123,19 +1123,19 @@
         <v>178975</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>163614</v>
+        <v>162490</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>195526</v>
+        <v>194217</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.6438974476962815</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.588636173254058</v>
+        <v>0.5845899454373649</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.7034458942425607</v>
+        <v>0.6987370025390295</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>525</v>
@@ -1144,19 +1144,19 @@
         <v>537024</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>510390</v>
+        <v>509256</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>562161</v>
+        <v>561653</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.696176463680481</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.6616495288180962</v>
+        <v>0.6601794175919128</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.72876322587399</v>
+        <v>0.7281036560357372</v>
       </c>
     </row>
     <row r="10">
@@ -1173,19 +1173,19 @@
         <v>66952</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>52742</v>
+        <v>52318</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>82990</v>
+        <v>82712</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.135684711988448</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1068881417201427</v>
+        <v>0.106026951586179</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1681879215405812</v>
+        <v>0.1676251337181965</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>54</v>
@@ -1194,19 +1194,19 @@
         <v>56434</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>43333</v>
+        <v>43940</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>70781</v>
+        <v>72100</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2030323856501239</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1559000603004215</v>
+        <v>0.1580825493810704</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2546485435268037</v>
+        <v>0.2593954240673771</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>119</v>
@@ -1215,19 +1215,19 @@
         <v>123386</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>104430</v>
+        <v>104712</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>145392</v>
+        <v>147230</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1599520658082652</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1353791129375614</v>
+        <v>0.1357448460468291</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1884799650946949</v>
+        <v>0.1908629714646165</v>
       </c>
     </row>
     <row r="11">
@@ -1319,19 +1319,19 @@
         <v>63819</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>49298</v>
+        <v>50561</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>80251</v>
+        <v>80883</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1403491556684148</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1084160543697677</v>
+        <v>0.1111927093850908</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1764866890428915</v>
+        <v>0.1778764058048158</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>41</v>
@@ -1340,19 +1340,19 @@
         <v>41974</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>30639</v>
+        <v>32025</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>54384</v>
+        <v>55897</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1686765447821124</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.123126860188529</v>
+        <v>0.1286971954430756</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2185476593044496</v>
+        <v>0.2246302613452719</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>103</v>
@@ -1361,19 +1361,19 @@
         <v>105793</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>87808</v>
+        <v>87858</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>125872</v>
+        <v>125521</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1503683125081939</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1248052810289314</v>
+        <v>0.1248767891717969</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1789083585639699</v>
+        <v>0.1784100424417323</v>
       </c>
     </row>
     <row r="13">
@@ -1390,19 +1390,19 @@
         <v>325537</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>305844</v>
+        <v>306692</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>343712</v>
+        <v>343504</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.7159161305836081</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6726070570862563</v>
+        <v>0.6744717557275721</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7558861422409322</v>
+        <v>0.7554295151195017</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>159</v>
@@ -1411,19 +1411,19 @@
         <v>163313</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>148625</v>
+        <v>147699</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>178720</v>
+        <v>178915</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6562920538302783</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5972645454936329</v>
+        <v>0.5935457688255612</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7182054487673887</v>
+        <v>0.7189922520543954</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>481</v>
@@ -1432,19 +1432,19 @@
         <v>488850</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>464986</v>
+        <v>463189</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>511956</v>
+        <v>511570</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6948276012447084</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.6609084688964275</v>
+        <v>0.6583545981636005</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7276691503938414</v>
+        <v>0.7271210562459083</v>
       </c>
     </row>
     <row r="14">
@@ -1461,19 +1461,19 @@
         <v>65358</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>50922</v>
+        <v>50664</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>80451</v>
+        <v>81465</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.143734713747977</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1119868280185072</v>
+        <v>0.1114184034276759</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1769257935465691</v>
+        <v>0.1791555784488156</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>47</v>
@@ -1482,19 +1482,19 @@
         <v>43555</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>32426</v>
+        <v>31823</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>56839</v>
+        <v>55333</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1750314013876093</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1303084912664604</v>
+        <v>0.1278861437090922</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.228412242294198</v>
+        <v>0.2223625123696749</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>109</v>
@@ -1503,19 +1503,19 @@
         <v>108913</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>92064</v>
+        <v>90269</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>129334</v>
+        <v>129199</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1548040862470976</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1308559175897697</v>
+        <v>0.1283039114134409</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1838286871724638</v>
+        <v>0.1836374676890032</v>
       </c>
     </row>
     <row r="15">
@@ -1607,19 +1607,19 @@
         <v>29556</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>20440</v>
+        <v>20779</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>40485</v>
+        <v>40789</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1855586123455437</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.128328151749465</v>
+        <v>0.1304534038498609</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2541684038039749</v>
+        <v>0.2560805298055047</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>25</v>
@@ -1628,19 +1628,19 @@
         <v>25415</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>17352</v>
+        <v>16861</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>34048</v>
+        <v>34378</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2577014101209431</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.175949409079804</v>
+        <v>0.1709687117903061</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3452438673794166</v>
+        <v>0.3485902053224518</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>53</v>
@@ -1649,19 +1649,19 @@
         <v>54971</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>43517</v>
+        <v>42875</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>70335</v>
+        <v>70768</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2131456213235379</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1687343017209845</v>
+        <v>0.1662454450306179</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2727174964535817</v>
+        <v>0.2743985558201361</v>
       </c>
     </row>
     <row r="17">
@@ -1678,19 +1678,19 @@
         <v>103447</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>89669</v>
+        <v>89981</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>115563</v>
+        <v>116175</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.649455367757141</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5629515910319823</v>
+        <v>0.5649139320960525</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7255217521017301</v>
+        <v>0.729364867910554</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>58</v>
@@ -1699,19 +1699,19 @@
         <v>57784</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>47497</v>
+        <v>48143</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>65788</v>
+        <v>67900</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5859213825043603</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4816116819141203</v>
+        <v>0.4881606245949573</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6670818065410782</v>
+        <v>0.6884903805933056</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>156</v>
@@ -1720,19 +1720,19 @@
         <v>161231</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>145594</v>
+        <v>144048</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>175855</v>
+        <v>176959</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6251603213266865</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.564528475650691</v>
+        <v>0.5585348186834067</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6818605829207973</v>
+        <v>0.6861410844014</v>
       </c>
     </row>
     <row r="18">
@@ -1749,19 +1749,19 @@
         <v>26279</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>17883</v>
+        <v>17010</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>38005</v>
+        <v>38352</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1649860198973153</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1122718633728423</v>
+        <v>0.1067893512419198</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2386008894000499</v>
+        <v>0.2407768935285192</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>16</v>
@@ -1770,19 +1770,19 @@
         <v>15422</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>8856</v>
+        <v>9509</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>23186</v>
+        <v>23291</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1563772073746966</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.08980006956226996</v>
+        <v>0.09642052064232218</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2350989404348971</v>
+        <v>0.2361655569404796</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>40</v>
@@ -1791,19 +1791,19 @@
         <v>41702</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>30303</v>
+        <v>30943</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>55441</v>
+        <v>54358</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1616940573497755</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.117498157156484</v>
+        <v>0.1199775402195565</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.21496732734538</v>
+        <v>0.2107666576407236</v>
       </c>
     </row>
     <row r="19">
@@ -1895,19 +1895,19 @@
         <v>213219</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>185307</v>
+        <v>185703</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>239744</v>
+        <v>242106</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1556152537571362</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1352443500212436</v>
+        <v>0.1355334062160503</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1749742118601868</v>
+        <v>0.1766984436949024</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>150</v>
@@ -1916,19 +1916,19 @@
         <v>157935</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>136297</v>
+        <v>138382</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>182023</v>
+        <v>181175</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1863161660215407</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1607901279042704</v>
+        <v>0.1632496269941508</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.214732230837143</v>
+        <v>0.2137323961533978</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>357</v>
@@ -1937,19 +1937,19 @@
         <v>371154</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>336837</v>
+        <v>331906</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>408036</v>
+        <v>407875</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1673493508707205</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1518762753331702</v>
+        <v>0.1496528882227369</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1839791289945007</v>
+        <v>0.1839066669882425</v>
       </c>
     </row>
     <row r="21">
@@ -1966,19 +1966,19 @@
         <v>964371</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>930483</v>
+        <v>930756</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>994891</v>
+        <v>1000140</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.7038353071323726</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.679102086409651</v>
+        <v>0.6793017222417087</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.726110119928888</v>
+        <v>0.7299407273921327</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>503</v>
@@ -1987,19 +1987,19 @@
         <v>514987</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>486626</v>
+        <v>487993</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>542075</v>
+        <v>542596</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.6075303356752473</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.5740724617066156</v>
+        <v>0.5756855694280364</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.6394858726718137</v>
+        <v>0.6401003259586231</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1445</v>
@@ -2008,19 +2008,19 @@
         <v>1479358</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1435818</v>
+        <v>1430186</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>1520610</v>
+        <v>1523189</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.6670268931716876</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.6473952693575462</v>
+        <v>0.6448556395713189</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.6856268708751511</v>
+        <v>0.6867897868067042</v>
       </c>
     </row>
     <row r="22">
@@ -2037,19 +2037,19 @@
         <v>192576</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>167042</v>
+        <v>164756</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>218284</v>
+        <v>220294</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1405494391104912</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.121913662885744</v>
+        <v>0.1202449233441113</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1593119276628453</v>
+        <v>0.1607792435709668</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>176</v>
@@ -2058,19 +2058,19 @@
         <v>174751</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>151525</v>
+        <v>152101</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>200329</v>
+        <v>196776</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2061534983032119</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1787544404538776</v>
+        <v>0.1794336068895368</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2363286964264234</v>
+        <v>0.2321369381553521</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>360</v>
@@ -2079,19 +2079,19 @@
         <v>367327</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>332394</v>
+        <v>333427</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>405766</v>
+        <v>405847</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1656237559575919</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1498728446923913</v>
+        <v>0.1503388304011298</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1829557748186871</v>
+        <v>0.1829920139273055</v>
       </c>
     </row>
     <row r="23">
@@ -2423,19 +2423,19 @@
         <v>160476</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>136703</v>
+        <v>139779</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>180872</v>
+        <v>181996</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3220372067119575</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.274330565406145</v>
+        <v>0.2805036757329447</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.362967111744276</v>
+        <v>0.3652212450496626</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>89</v>
@@ -2444,19 +2444,19 @@
         <v>98515</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>80704</v>
+        <v>80490</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>117175</v>
+        <v>114553</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2756153038708223</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2257860933023157</v>
+        <v>0.2251858041033689</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3278197898947561</v>
+        <v>0.3204865397069497</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>240</v>
@@ -2465,19 +2465,19 @@
         <v>258991</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>230507</v>
+        <v>233437</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>284987</v>
+        <v>286617</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3026474159286202</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2693616053282106</v>
+        <v>0.2727860230350738</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3330247748459244</v>
+        <v>0.3349294507770567</v>
       </c>
     </row>
     <row r="5">
@@ -2494,19 +2494,19 @@
         <v>246264</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>225620</v>
+        <v>221793</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>269481</v>
+        <v>268754</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4941922365769301</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4527644083998696</v>
+        <v>0.4450846284578782</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5407831955128762</v>
+        <v>0.5393238021884014</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>151</v>
@@ -2515,19 +2515,19 @@
         <v>167675</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>148378</v>
+        <v>150405</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>189304</v>
+        <v>189227</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4691035969720064</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4151167656862169</v>
+        <v>0.4207886695672671</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5296178433382028</v>
+        <v>0.5294007855950782</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>383</v>
@@ -2536,19 +2536,19 @@
         <v>413938</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>385121</v>
+        <v>384824</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>445072</v>
+        <v>444068</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.483713056638038</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.45003839567597</v>
+        <v>0.4496907764975822</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5200942234587015</v>
+        <v>0.5189216387622904</v>
       </c>
     </row>
     <row r="6">
@@ -2565,19 +2565,19 @@
         <v>91576</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>72864</v>
+        <v>76315</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>108417</v>
+        <v>110409</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1837705567111124</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1462201449338095</v>
+        <v>0.1531466965626168</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2175659238320067</v>
+        <v>0.2215651845480216</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>84</v>
@@ -2586,19 +2586,19 @@
         <v>91247</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>74461</v>
+        <v>74808</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>109714</v>
+        <v>108040</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2552810991571713</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2083186887811354</v>
+        <v>0.2092904476463792</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3069463512426776</v>
+        <v>0.3022641050024361</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>169</v>
@@ -2607,19 +2607,19 @@
         <v>182822</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>157481</v>
+        <v>158927</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>207299</v>
+        <v>206653</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2136395274333419</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1840261282162505</v>
+        <v>0.1857166864676781</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2422424563085164</v>
+        <v>0.2414867695852818</v>
       </c>
     </row>
     <row r="7">
@@ -2711,19 +2711,19 @@
         <v>121182</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>103926</v>
+        <v>101126</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>141289</v>
+        <v>141685</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2993842542394407</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.256753161776379</v>
+        <v>0.249836757010308</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3490606119244225</v>
+        <v>0.3500390105838126</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>62</v>
@@ -2732,19 +2732,19 @@
         <v>66703</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>52936</v>
+        <v>51849</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>81554</v>
+        <v>82071</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2271006067729504</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1802278304038344</v>
+        <v>0.1765282514821384</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2776616979717704</v>
+        <v>0.279423797439406</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>172</v>
@@ -2753,19 +2753,19 @@
         <v>187885</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>164953</v>
+        <v>162362</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>213763</v>
+        <v>211516</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2689887085476359</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.236158307610068</v>
+        <v>0.2324480850765183</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3060377410280363</v>
+        <v>0.3028211517149093</v>
       </c>
     </row>
     <row r="9">
@@ -2782,19 +2782,19 @@
         <v>214310</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>193913</v>
+        <v>194765</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>234273</v>
+        <v>235356</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.5294608398396861</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4790685814981243</v>
+        <v>0.4811747085669204</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5787807638604819</v>
+        <v>0.581456236147154</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>155</v>
@@ -2803,19 +2803,19 @@
         <v>169618</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>152051</v>
+        <v>149911</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>185580</v>
+        <v>186697</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.5774886300743172</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.5176811288084994</v>
+        <v>0.5103933751067321</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.6318344386878897</v>
+        <v>0.6356393608672113</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>361</v>
@@ -2824,19 +2824,19 @@
         <v>383927</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>357864</v>
+        <v>354676</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>412328</v>
+        <v>410785</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.5496567063146022</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.5123438262824719</v>
+        <v>0.5077795658576846</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5903176636356119</v>
+        <v>0.5881079416883168</v>
       </c>
     </row>
     <row r="10">
@@ -2853,19 +2853,19 @@
         <v>69278</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>53919</v>
+        <v>55234</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>84834</v>
+        <v>86264</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1711549059208732</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1332090233462526</v>
+        <v>0.1364578230831064</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2095860549008445</v>
+        <v>0.2131195871582953</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>51</v>
@@ -2874,19 +2874,19 @@
         <v>57395</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>44269</v>
+        <v>44325</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>72497</v>
+        <v>73474</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1954107631527325</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1507215742345376</v>
+        <v>0.1509121481133823</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2468269533651796</v>
+        <v>0.2501534100971272</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>119</v>
@@ -2895,19 +2895,19 @@
         <v>126673</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>108346</v>
+        <v>106386</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>150002</v>
+        <v>149064</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1813545851377619</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1551161190098208</v>
+        <v>0.1523099306569714</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2147537634834643</v>
+        <v>0.2134106875195736</v>
       </c>
     </row>
     <row r="11">
@@ -2999,19 +2999,19 @@
         <v>75465</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>61446</v>
+        <v>60986</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>92645</v>
+        <v>91658</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2663695912058892</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2168857685517026</v>
+        <v>0.215263427402816</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3270087374111865</v>
+        <v>0.323528113173754</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>48</v>
@@ -3020,19 +3020,19 @@
         <v>52409</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>40507</v>
+        <v>40137</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>66238</v>
+        <v>66180</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2387122040856429</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1845006111383847</v>
+        <v>0.182814291557095</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3016993014157288</v>
+        <v>0.3014353106470182</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>117</v>
@@ -3041,19 +3041,19 @@
         <v>127874</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>107749</v>
+        <v>110786</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>150166</v>
+        <v>149780</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2542942885493075</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2142719572975012</v>
+        <v>0.2203117856791346</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2986235729753319</v>
+        <v>0.2978562996138413</v>
       </c>
     </row>
     <row r="13">
@@ -3070,19 +3070,19 @@
         <v>173655</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>156643</v>
+        <v>155742</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>188721</v>
+        <v>192199</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6129531593540294</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5529056088495857</v>
+        <v>0.549724284650982</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6661297322243789</v>
+        <v>0.6784062070163583</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>125</v>
@@ -3091,19 +3091,19 @@
         <v>130095</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>115170</v>
+        <v>114570</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>144276</v>
+        <v>144252</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.592552104479694</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5245708935526567</v>
+        <v>0.5218396306078099</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6571451606105103</v>
+        <v>0.6570341999577545</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>286</v>
@@ -3112,19 +3112,19 @@
         <v>303750</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>280291</v>
+        <v>280040</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>326953</v>
+        <v>326176</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.604045994297183</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5573954146857465</v>
+        <v>0.5568951378424911</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6501876812522808</v>
+        <v>0.6486425557303638</v>
       </c>
     </row>
     <row r="14">
@@ -3141,19 +3141,19 @@
         <v>34189</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>24317</v>
+        <v>23460</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>47757</v>
+        <v>47236</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1206772494400815</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.08583230381940954</v>
+        <v>0.08280597633117476</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1685703333739132</v>
+        <v>0.1667281754962711</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>35</v>
@@ -3162,19 +3162,19 @@
         <v>37046</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>26718</v>
+        <v>26230</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>48980</v>
+        <v>48616</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1687356914346631</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1216929087701008</v>
+        <v>0.1194702867237593</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2230911915300377</v>
+        <v>0.2214367957335177</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>67</v>
@@ -3183,19 +3183,19 @@
         <v>71235</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>57015</v>
+        <v>56145</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>90365</v>
+        <v>87788</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1416597171535096</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1133819685659149</v>
+        <v>0.1116513814835327</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1797014815443764</v>
+        <v>0.1745774233387561</v>
       </c>
     </row>
     <row r="15">
@@ -3287,19 +3287,19 @@
         <v>48939</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>35405</v>
+        <v>37452</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>61158</v>
+        <v>62567</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3054911152493388</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2210091316420711</v>
+        <v>0.2337828592812018</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3817649357056162</v>
+        <v>0.3905555142273817</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>37</v>
@@ -3308,19 +3308,19 @@
         <v>39412</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>28983</v>
+        <v>29086</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>49647</v>
+        <v>49268</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3811566059765186</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2802985040157115</v>
+        <v>0.2812920015297095</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4801498477330226</v>
+        <v>0.4764843296156157</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>82</v>
@@ -3329,19 +3329,19 @@
         <v>88351</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>73965</v>
+        <v>72476</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>105007</v>
+        <v>103643</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.335171800254499</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.280598199630701</v>
+        <v>0.2749492956850082</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3983590340536122</v>
+        <v>0.3931846302925325</v>
       </c>
     </row>
     <row r="17">
@@ -3358,19 +3358,19 @@
         <v>90431</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>77494</v>
+        <v>77097</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>104797</v>
+        <v>103173</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5644887874004342</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4837383838875088</v>
+        <v>0.4812569619291433</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6541681361411312</v>
+        <v>0.6440285091946172</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>40</v>
@@ -3379,19 +3379,19 @@
         <v>43661</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>34024</v>
+        <v>34503</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>55215</v>
+        <v>55034</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4222486688276565</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.329049937397863</v>
+        <v>0.3336893810143842</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5339979161073656</v>
+        <v>0.5322399888295021</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>127</v>
@@ -3400,19 +3400,19 @@
         <v>134091</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>115839</v>
+        <v>116744</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>151069</v>
+        <v>154103</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.508693416037849</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4394531364925875</v>
+        <v>0.442885497171021</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5731046700627881</v>
+        <v>0.5846131405287168</v>
       </c>
     </row>
     <row r="18">
@@ -3429,19 +3429,19 @@
         <v>20829</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>12724</v>
+        <v>11740</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>33259</v>
+        <v>32140</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.130020097350227</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.0794255701636532</v>
+        <v>0.07328348745262697</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2076090111492452</v>
+        <v>0.2006232906804343</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>19</v>
@@ -3450,19 +3450,19 @@
         <v>20328</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>12956</v>
+        <v>13086</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>28822</v>
+        <v>29456</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1965947251958248</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1252988024725526</v>
+        <v>0.1265578953038712</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2787459781618872</v>
+        <v>0.2848756649770803</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>35</v>
@@ -3471,19 +3471,19 @@
         <v>41157</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>29682</v>
+        <v>29338</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>54036</v>
+        <v>55538</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1561347837076521</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1126042534534153</v>
+        <v>0.1112995374058889</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2049926723648058</v>
+        <v>0.2106906826584395</v>
       </c>
     </row>
     <row r="19">
@@ -3575,19 +3575,19 @@
         <v>406062</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>369987</v>
+        <v>370129</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>441572</v>
+        <v>439675</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3015477090998396</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2747574546179553</v>
+        <v>0.2748630867268473</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3279174790455543</v>
+        <v>0.3265092904631245</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>236</v>
@@ -3596,19 +3596,19 @@
         <v>257038</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>230587</v>
+        <v>230828</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>287756</v>
+        <v>284292</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2638725009709008</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.236717722474028</v>
+        <v>0.2369650406424882</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.29540681144335</v>
+        <v>0.2918502938575815</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>611</v>
@@ -3617,19 +3617,19 @@
         <v>663101</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>619329</v>
+        <v>616504</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>707487</v>
+        <v>706300</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2857337130748557</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2668722078256976</v>
+        <v>0.2656549928734313</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3048600214630435</v>
+        <v>0.3043486814483639</v>
       </c>
     </row>
     <row r="21">
@@ -3646,19 +3646,19 @@
         <v>724659</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>688041</v>
+        <v>688638</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>764992</v>
+        <v>763806</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.5381424779152952</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.5109494448476581</v>
+        <v>0.5113926721148664</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.5680942998238432</v>
+        <v>0.5672133242572761</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>471</v>
@@ -3667,19 +3667,19 @@
         <v>511047</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>473115</v>
+        <v>479699</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>540247</v>
+        <v>541323</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.5246344933609733</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.4856940464903599</v>
+        <v>0.4924529423857165</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.5546108710064549</v>
+        <v>0.5557159630456677</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1157</v>
@@ -3688,19 +3688,19 @@
         <v>1235706</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1190383</v>
+        <v>1183636</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>1286623</v>
+        <v>1280502</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.5324725632776238</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.512942465802755</v>
+        <v>0.5100349551457709</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.5544126238246485</v>
+        <v>0.5517753521563171</v>
       </c>
     </row>
     <row r="22">
@@ -3717,19 +3717,19 @@
         <v>215872</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>189247</v>
+        <v>184773</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>243783</v>
+        <v>243466</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1603098129848651</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1405374541668122</v>
+        <v>0.137214758083347</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1810369594364206</v>
+        <v>0.1808012391201607</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>189</v>
@@ -3738,19 +3738,19 @@
         <v>206016</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>182362</v>
+        <v>180431</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>234609</v>
+        <v>234484</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2114930056681259</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1872110000304407</v>
+        <v>0.1852279123296255</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2408471739000321</v>
+        <v>0.2407178673864006</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>390</v>
@@ -3759,19 +3759,19 @@
         <v>421888</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>377900</v>
+        <v>384372</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>458554</v>
+        <v>460042</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1817937236475205</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.162839071160549</v>
+        <v>0.1656281527405541</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1975933563491166</v>
+        <v>0.1982345230716872</v>
       </c>
     </row>
     <row r="23">
@@ -4103,19 +4103,19 @@
         <v>112436</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>94688</v>
+        <v>94208</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>132784</v>
+        <v>131350</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2290438363652076</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1928906021340754</v>
+        <v>0.1919120370596497</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2704960594814608</v>
+        <v>0.2675737547348987</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>84</v>
@@ -4124,19 +4124,19 @@
         <v>88655</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>71906</v>
+        <v>72960</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>106365</v>
+        <v>108478</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2235617204538134</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1813264482614579</v>
+        <v>0.1839842653528468</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2682213488597563</v>
+        <v>0.2735490394776444</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>189</v>
@@ -4145,19 +4145,19 @@
         <v>201091</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>177057</v>
+        <v>176022</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>230316</v>
+        <v>226839</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2265941455276495</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1995117895170487</v>
+        <v>0.1983452970640078</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2595251017876389</v>
+        <v>0.2556081734305927</v>
       </c>
     </row>
     <row r="5">
@@ -4174,19 +4174,19 @@
         <v>321264</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>298071</v>
+        <v>298512</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>341691</v>
+        <v>341321</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6544492429376846</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.607202044602021</v>
+        <v>0.6081014402772787</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6960623490719031</v>
+        <v>0.6953076003526977</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>244</v>
@@ -4195,19 +4195,19 @@
         <v>250048</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>230744</v>
+        <v>229811</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>269219</v>
+        <v>269468</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6305466395838778</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5818676601285447</v>
+        <v>0.5795139404309357</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.678889917685723</v>
+        <v>0.679516806298336</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>539</v>
@@ -4216,19 +4216,19 @@
         <v>571312</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>543796</v>
+        <v>543163</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>600415</v>
+        <v>600834</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6437683326147371</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6127629721041284</v>
+        <v>0.612049672369255</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.676561733894177</v>
+        <v>0.677033724924231</v>
       </c>
     </row>
     <row r="6">
@@ -4245,19 +4245,19 @@
         <v>57192</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>43729</v>
+        <v>44292</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>71660</v>
+        <v>72949</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1165069206971079</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.0890806152848307</v>
+        <v>0.09022835819409411</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1459798112922652</v>
+        <v>0.1486059545462403</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>55</v>
@@ -4266,19 +4266,19 @@
         <v>57854</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>44705</v>
+        <v>44237</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>73631</v>
+        <v>72680</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1458916399623088</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1127334994179129</v>
+        <v>0.1115524964285572</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1856749758113581</v>
+        <v>0.1832762635839243</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>108</v>
@@ -4287,19 +4287,19 @@
         <v>115047</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>95891</v>
+        <v>96095</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>137583</v>
+        <v>137332</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1296375218576134</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1080526192612393</v>
+        <v>0.1082817327055775</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1550319477832778</v>
+        <v>0.1547495219212162</v>
       </c>
     </row>
     <row r="7">
@@ -4391,19 +4391,19 @@
         <v>71985</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>58004</v>
+        <v>57797</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>87754</v>
+        <v>87700</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.224195259774175</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1806521681815312</v>
+        <v>0.1800075561820426</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2733076790792103</v>
+        <v>0.2731378957048407</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>50</v>
@@ -4412,19 +4412,19 @@
         <v>51540</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>39771</v>
+        <v>40196</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>63508</v>
+        <v>66132</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.19760755930177</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1524857837966559</v>
+        <v>0.1541162019294841</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2434960534375475</v>
+        <v>0.2535556264552023</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>118</v>
@@ -4433,19 +4433,19 @@
         <v>123525</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>104886</v>
+        <v>103894</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>143258</v>
+        <v>145623</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2122781431621907</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.180246775917212</v>
+        <v>0.1785426536137251</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2461895793422934</v>
+        <v>0.2502535923031502</v>
       </c>
     </row>
     <row r="9">
@@ -4462,19 +4462,19 @@
         <v>212852</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>196618</v>
+        <v>195599</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>231427</v>
+        <v>229057</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.662922503971337</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.6123601939822529</v>
+        <v>0.6091871149561047</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.7207725304640469</v>
+        <v>0.7133917753565442</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>179</v>
@@ -4483,19 +4483,19 @@
         <v>182863</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>167349</v>
+        <v>166917</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>196777</v>
+        <v>197926</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.7011107539994527</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.6416307118283456</v>
+        <v>0.6399710320940514</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.7544584890810581</v>
+        <v>0.758864963952622</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>382</v>
@@ -4504,19 +4504,19 @@
         <v>395716</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>371611</v>
+        <v>372411</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>418113</v>
+        <v>418476</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.6800392090908717</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.6386146676594486</v>
+        <v>0.6399885813784395</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.7185285411681296</v>
+        <v>0.7191517986971027</v>
       </c>
     </row>
     <row r="10">
@@ -4533,19 +4533,19 @@
         <v>36244</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>25484</v>
+        <v>25992</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>49468</v>
+        <v>50364</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1128822362544879</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07936931497729623</v>
+        <v>0.0809524774780799</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1540673554622299</v>
+        <v>0.1568586078736361</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>25</v>
@@ -4554,19 +4554,19 @@
         <v>26416</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>17165</v>
+        <v>16856</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>37776</v>
+        <v>37091</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1012816866987773</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06581116698170568</v>
+        <v>0.06462862730929549</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1448363182049079</v>
+        <v>0.1422108785009365</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>57</v>
@@ -4575,19 +4575,19 @@
         <v>62661</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>48732</v>
+        <v>49038</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>80107</v>
+        <v>80173</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1076826477469376</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08374563750501206</v>
+        <v>0.08427181952077138</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1376647113365912</v>
+        <v>0.1377769390253413</v>
       </c>
     </row>
     <row r="11">
@@ -4679,19 +4679,19 @@
         <v>44833</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>32360</v>
+        <v>34237</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>56939</v>
+        <v>57827</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2007381582906911</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1448902907897445</v>
+        <v>0.153296311823938</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2549444956833362</v>
+        <v>0.2589218675561258</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>27</v>
@@ -4700,19 +4700,19 @@
         <v>28062</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>18779</v>
+        <v>19803</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>39028</v>
+        <v>38843</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1727593782370561</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1156125389092276</v>
+        <v>0.1219128635294917</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2402736952689475</v>
+        <v>0.2391302318485361</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>70</v>
@@ -4721,19 +4721,19 @@
         <v>72894</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>58944</v>
+        <v>59032</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>89418</v>
+        <v>90180</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.188957397828199</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1527940801390631</v>
+        <v>0.1530228319363829</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2317906094860119</v>
+        <v>0.2337654075708782</v>
       </c>
     </row>
     <row r="13">
@@ -4750,19 +4750,19 @@
         <v>150453</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>135520</v>
+        <v>134969</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>164965</v>
+        <v>164331</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6736552658082676</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6067884860431876</v>
+        <v>0.6043234838558431</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.738628314420403</v>
+        <v>0.7357921376789157</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>109</v>
@@ -4771,19 +4771,19 @@
         <v>112101</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>98948</v>
+        <v>100517</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>124415</v>
+        <v>122862</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6901378711583809</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.6091630192802329</v>
+        <v>0.6188215355170079</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7659445472037358</v>
+        <v>0.7563828463960753</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>248</v>
@@ -4792,19 +4792,19 @@
         <v>262555</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>242731</v>
+        <v>242409</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>279064</v>
+        <v>280187</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6805954406498882</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.6292076807402066</v>
+        <v>0.6283747814979296</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7233919654484404</v>
+        <v>0.7263017478045922</v>
       </c>
     </row>
     <row r="14">
@@ -4821,19 +4821,19 @@
         <v>28053</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>18780</v>
+        <v>18783</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>39777</v>
+        <v>40577</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1256065759010414</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.08408639750481035</v>
+        <v>0.08410261229538409</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1781014303646367</v>
+        <v>0.1816848424740315</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>22</v>
@@ -4842,19 +4842,19 @@
         <v>22270</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>14318</v>
+        <v>14115</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>32617</v>
+        <v>31646</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1371027506045631</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.08814763260596697</v>
+        <v>0.08689972491262339</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2008024769778493</v>
+        <v>0.1948233608894133</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>47</v>
@@ -4863,19 +4863,19 @@
         <v>50323</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>36927</v>
+        <v>38122</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>64050</v>
+        <v>65436</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1304471615219128</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.09572111941310738</v>
+        <v>0.09882100266535253</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1660315499901747</v>
+        <v>0.1696233087840084</v>
       </c>
     </row>
     <row r="15">
@@ -4967,19 +4967,19 @@
         <v>28682</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>20109</v>
+        <v>19593</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>40194</v>
+        <v>39747</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2276873738655422</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1596333002583968</v>
+        <v>0.1555361835157673</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3190672520978285</v>
+        <v>0.3155236230800137</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>25</v>
@@ -4988,19 +4988,19 @@
         <v>27828</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>19244</v>
+        <v>19110</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>37463</v>
+        <v>37084</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.307175738965483</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2124216898632952</v>
+        <v>0.2109483744998598</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4135338686721012</v>
+        <v>0.4093485109904171</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>50</v>
@@ -5009,19 +5009,19 @@
         <v>56510</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>43399</v>
+        <v>44121</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>70419</v>
+        <v>70636</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2609386356717722</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2003964905276825</v>
+        <v>0.2037317470332504</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3251616218286821</v>
+        <v>0.3261633761947885</v>
       </c>
     </row>
     <row r="17">
@@ -5038,19 +5038,19 @@
         <v>78909</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>68027</v>
+        <v>67919</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>89513</v>
+        <v>89341</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6263993648955363</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5400121210691708</v>
+        <v>0.5391534405312353</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7105759860457889</v>
+        <v>0.7092052737777504</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>49</v>
@@ -5059,19 +5059,19 @@
         <v>49526</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>40892</v>
+        <v>40367</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>58765</v>
+        <v>59168</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.546682126120883</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4513771696559256</v>
+        <v>0.4455890171681626</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6486681742927429</v>
+        <v>0.6531162607248729</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>123</v>
@@ -5080,19 +5080,19 @@
         <v>128435</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>112340</v>
+        <v>113632</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>141873</v>
+        <v>142668</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.593052361549411</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5187319863928581</v>
+        <v>0.5246984714890947</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6551017115237459</v>
+        <v>0.658775186107173</v>
       </c>
     </row>
     <row r="18">
@@ -5109,19 +5109,19 @@
         <v>18381</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>10304</v>
+        <v>10864</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>26663</v>
+        <v>27361</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1459132612389216</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.08179398950540021</v>
+        <v>0.08623857634621361</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.211658083192662</v>
+        <v>0.2171965433443848</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>13</v>
@@ -5130,19 +5130,19 @@
         <v>13239</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>7645</v>
+        <v>7022</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>20863</v>
+        <v>20571</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1461421349136341</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.08439289752632617</v>
+        <v>0.07750604283881053</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2302973574869938</v>
+        <v>0.2270702170289802</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>30</v>
@@ -5151,19 +5151,19 @@
         <v>31621</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>22476</v>
+        <v>22151</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>43006</v>
+        <v>44299</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1460090027788168</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1037830300847739</v>
+        <v>0.1022847223476354</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1985818693068454</v>
+        <v>0.2045527591920401</v>
       </c>
     </row>
     <row r="19">
@@ -5255,19 +5255,19 @@
         <v>257936</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>231161</v>
+        <v>231725</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>286732</v>
+        <v>288055</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.222112363214278</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1990564286831603</v>
+        <v>0.1995420698367805</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2469091684961768</v>
+        <v>0.2480483384277553</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>186</v>
@@ -5276,19 +5276,19 @@
         <v>196085</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>172575</v>
+        <v>172789</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>222988</v>
+        <v>223961</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2153823811129533</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1895592005126472</v>
+        <v>0.1897942389056562</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2449326328843771</v>
+        <v>0.2460014036926667</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>427</v>
@@ -5297,19 +5297,19 @@
         <v>454021</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>415397</v>
+        <v>414231</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>491038</v>
+        <v>492374</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2191548722937361</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2005114913894962</v>
+        <v>0.1999484727464316</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2370232239569653</v>
+        <v>0.2376677130719206</v>
       </c>
     </row>
     <row r="21">
@@ -5326,19 +5326,19 @@
         <v>763479</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>727511</v>
+        <v>730868</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>795101</v>
+        <v>795469</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.6574429395062067</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.6264707602756089</v>
+        <v>0.6293618639588487</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.6846736175810901</v>
+        <v>0.6849901245609608</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>581</v>
@@ -5347,19 +5347,19 @@
         <v>594539</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>565008</v>
+        <v>563627</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>624513</v>
+        <v>621505</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.6530493591993238</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.6206124092490233</v>
+        <v>0.6190949458903233</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.685973821906234</v>
+        <v>0.6826698821494415</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1292</v>
@@ -5368,19 +5368,19 @@
         <v>1358017</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1310953</v>
+        <v>1319589</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>1402864</v>
+        <v>1404611</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.6555121804535609</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.6327943900906438</v>
+        <v>0.6369628953942296</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.6771596341508608</v>
+        <v>0.6780027696050074</v>
       </c>
     </row>
     <row r="22">
@@ -5397,19 +5397,19 @@
         <v>139871</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>119005</v>
+        <v>117040</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>166752</v>
+        <v>167578</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1204446972795153</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1024773205534879</v>
+        <v>0.1007845546213665</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.143592321254989</v>
+        <v>0.1443037069199862</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>115</v>
@@ -5418,19 +5418,19 @@
         <v>119780</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>100134</v>
+        <v>98884</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>141305</v>
+        <v>141957</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1315682596877229</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1099883278710457</v>
+        <v>0.1086159133582314</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1552112326697836</v>
+        <v>0.1559273299079875</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>242</v>
@@ -5439,19 +5439,19 @@
         <v>259651</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>230800</v>
+        <v>229023</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>292755</v>
+        <v>292268</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.125332947252703</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1114066571576024</v>
+        <v>0.1105489940655557</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1413122380079237</v>
+        <v>0.1410773115673289</v>
       </c>
     </row>
     <row r="23">
